--- a/src/main/resources/templates/demo.xlsx
+++ b/src/main/resources/templates/demo.xlsx
@@ -21,10 +21,10 @@
     <t>标题</t>
   </si>
   <si>
+    <t>{title}</t>
+  </si>
+  <si>
     <t>主图</t>
-  </si>
-  <si>
-    <t>{title}</t>
   </si>
   <si>
     <t>{img}</t>
@@ -754,11 +754,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1137,12 +1140,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1150,93 +1153,93 @@
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" ht="14.25" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="G8" t="s">
         <v>26</v>
       </c>

--- a/src/main/resources/templates/demo.xlsx
+++ b/src/main/resources/templates/demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>标题</t>
   </si>
@@ -30,6 +30,12 @@
     <t>{img}</t>
   </si>
   <si>
+    <t>{image}</t>
+  </si>
+  <si>
+    <t>ASIN</t>
+  </si>
+  <si>
     <t>自然流量</t>
   </si>
   <si>
@@ -45,19 +51,46 @@
     <t>广告订单数</t>
   </si>
   <si>
-    <t>{asinSession}</t>
-  </si>
-  <si>
-    <t>{unitOrder}</t>
-  </si>
-  <si>
-    <t>{clicks}</t>
-  </si>
-  <si>
-    <t>{spend}</t>
-  </si>
-  <si>
-    <t>{day7TotalOrders}</t>
+    <t>自然曝光</t>
+  </si>
+  <si>
+    <t>总Unit Sell 个数</t>
+  </si>
+  <si>
+    <t>广告Unit Sell -Advertised ASINsum</t>
+  </si>
+  <si>
+    <t>广告Unit Sell -Other ASINsum</t>
+  </si>
+  <si>
+    <t>{.childAsin}</t>
+  </si>
+  <si>
+    <t>{.childAsinSession}</t>
+  </si>
+  <si>
+    <t>{.childUnitOrder}</t>
+  </si>
+  <si>
+    <t>{.childClicks}</t>
+  </si>
+  <si>
+    <t>{.childSpend}</t>
+  </si>
+  <si>
+    <t>{.childDay7TotalOrders}</t>
+  </si>
+  <si>
+    <t>{.childImpressions}</t>
+  </si>
+  <si>
+    <t>{.childDay7OtherSKUUnits}</t>
+  </si>
+  <si>
+    <t>{.childDay7AdvertisedSKUUnits}</t>
+  </si>
+  <si>
+    <t>{.childDay7TotalUnits}</t>
   </si>
   <si>
     <t>Seach Term</t>
@@ -76,9 +109,6 @@
   </si>
   <si>
     <t>广告排名(最近30天)</t>
-  </si>
-  <si>
-    <t>ASIN</t>
   </si>
   <si>
     <t>{.customerSearchTerm}</t>
@@ -115,7 +145,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +168,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -612,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,34 +660,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,98 +696,101 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +798,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -771,7 +810,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,18 +1164,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1152,102 +1198,234 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:10">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="J20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="21" ht="14.25" spans="1:10">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="G21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="H21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="I21" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="J21" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="22" ht="14.25" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:9">
+      <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" t="s">
+      <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="D32" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:9">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/demo.xlsx
+++ b/src/main/resources/templates/demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>标题</t>
   </si>
@@ -54,15 +54,15 @@
     <t>自然曝光</t>
   </si>
   <si>
+    <t>广告Unit Sell -Other ASINsum</t>
+  </si>
+  <si>
+    <t>广告Unit Sell -Advertised ASINsum</t>
+  </si>
+  <si>
     <t>总Unit Sell 个数</t>
   </si>
   <si>
-    <t>广告Unit Sell -Advertised ASINsum</t>
-  </si>
-  <si>
-    <t>广告Unit Sell -Other ASINsum</t>
-  </si>
-  <si>
     <t>{.childAsin}</t>
   </si>
   <si>
@@ -93,7 +93,19 @@
     <t>{.childDay7TotalUnits}</t>
   </si>
   <si>
-    <t>Seach Term</t>
+    <t>开始日期-结束日期</t>
+  </si>
+  <si>
+    <t>{seDate}</t>
+  </si>
+  <si>
+    <t>数据库中最新更新日期</t>
+  </si>
+  <si>
+    <t>{newDate}</t>
+  </si>
+  <si>
+    <t>Search Term</t>
   </si>
   <si>
     <t>点击数</t>
@@ -111,6 +123,12 @@
     <t>广告排名(最近30天)</t>
   </si>
   <si>
+    <t>标题是否含Search Term</t>
+  </si>
+  <si>
+    <t>爬虫最后更新时间</t>
+  </si>
+  <si>
     <t>{.customerSearchTerm}</t>
   </si>
   <si>
@@ -133,6 +151,24 @@
   </si>
   <si>
     <t>{.amzAsin}</t>
+  </si>
+  <si>
+    <t>{.bhFlag}</t>
+  </si>
+  <si>
+    <t>{.newDate}</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>Keyword Target</t>
+  </si>
+  <si>
+    <t>{.campaignName}</t>
+  </si>
+  <si>
+    <t>{.keywordTarget}</t>
   </si>
 </sst>
 </file>
@@ -145,7 +181,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +230,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -648,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,34 +702,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,98 +738,101 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +856,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,7 +1212,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,14 +1220,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="38.125" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1374,58 +1424,141 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="32" ht="14.25" spans="1:9">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="4" t="s">
+    </row>
+    <row r="34" ht="14.25" spans="1:11">
+      <c r="A34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="8" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:9">
-      <c r="A33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="J34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" t="s">
+      <c r="K34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H33" t="s">
+    </row>
+    <row r="35" ht="15" spans="1:11">
+      <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I33" t="s">
+      <c r="B35" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="10:10">
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" ht="15" spans="10:10">
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" ht="15" spans="10:10">
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" ht="15" spans="10:10">
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" ht="15" spans="10:10">
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" ht="15" spans="10:10">
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" ht="15" spans="10:10">
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" ht="15" spans="10:10">
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" ht="15" spans="10:10">
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" ht="15" spans="10:10">
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" ht="15" spans="10:10">
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" ht="15" spans="10:10">
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" ht="15" spans="10:10">
+      <c r="J48" s="10"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/demo.xlsx
+++ b/src/main/resources/templates/demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>标题</t>
   </si>
@@ -36,10 +36,13 @@
     <t>ASIN</t>
   </si>
   <si>
-    <t>自然流量</t>
-  </si>
-  <si>
-    <t>总订单数</t>
+    <t>自然流量({spDate})</t>
+  </si>
+  <si>
+    <t>商品销售数量({spDate})</t>
+  </si>
+  <si>
+    <t>总订单数量({spDate})</t>
   </si>
   <si>
     <t>总广告点击数</t>
@@ -72,6 +75,9 @@
     <t>{.childUnitOrder}</t>
   </si>
   <si>
+    <t>{.childTotalOrderItems}</t>
+  </si>
+  <si>
     <t>{.childClicks}</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
   </si>
   <si>
     <t>Keyword Target</t>
+  </si>
+  <si>
+    <t>{.paramAsin}</t>
   </si>
   <si>
     <t>{.campaignName}</t>
@@ -1221,8 +1230,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
@@ -1352,7 +1361,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" ht="14.25" spans="1:10">
+    <row r="20" ht="14.25" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1371,7 @@
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1371,10 +1380,10 @@
       <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1383,37 +1392,43 @@
       <c r="J20" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:10">
+      <c r="K20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:11">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
       <c r="E21" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
         <v>22</v>
       </c>
+      <c r="H21" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -1426,84 +1441,84 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:11">
       <c r="A34" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:11">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="15" spans="10:10">
@@ -1545,20 +1560,26 @@
     <row r="48" ht="15" spans="10:10">
       <c r="J48" s="10"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/demo.xlsx
+++ b/src/main/resources/templates/demo.xlsx
@@ -54,7 +54,7 @@
     <t>广告订单数</t>
   </si>
   <si>
-    <t>自然曝光</t>
+    <t>广告曝光</t>
   </si>
   <si>
     <t>广告Unit Sell -Other ASINsum</t>
